--- a/data/hanzo-cloud/hanzo-log-producer_structure.xlsx
+++ b/data/hanzo-cloud/hanzo-log-producer_structure.xlsx
@@ -132,19 +132,19 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>outPutLogChannel</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>com.hanzo.starter.kafka.channel.OutPutLogChannel</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
   </si>
   <si>
     <t>Source Class Name</t>
